--- a/Code/out/production/item51to60/53note.xlsx
+++ b/Code/out/production/item51to60/53note.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\LeetCodeProject\item51to60\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\item51to60\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935D0A2-FEB6-463B-A351-F3CF4C638F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5041E41-671E-4FC6-985F-6715E4F9ABDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="4470" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>0-0</t>
+    <t>入口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1</t>
+    <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子序列下标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大和</t>
+    <t>出口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +73,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -115,6 +114,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -124,18 +203,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,125 +560,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
-        <v>-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
